--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -549,34 +549,34 @@
         <v>0.4868977833905078</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.01116777397</v>
+        <v>0.02070871385666667</v>
       </c>
       <c r="R2">
-        <v>0.10050996573</v>
+        <v>0.18637842471</v>
       </c>
       <c r="S2">
-        <v>0.002144687241035843</v>
+        <v>0.003909558771947363</v>
       </c>
       <c r="T2">
-        <v>0.002144687241035843</v>
+        <v>0.003909558771947363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
         <v>2.163663843383333</v>
@@ -635,10 +635,10 @@
         <v>19.47297459045</v>
       </c>
       <c r="S3">
-        <v>0.4155154152707847</v>
+        <v>0.4084739891135969</v>
       </c>
       <c r="T3">
-        <v>0.4155154152707846</v>
+        <v>0.4084739891135969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>0.3559874390966667</v>
+        <v>0.3800339526666667</v>
       </c>
       <c r="R4">
-        <v>3.20388695187</v>
+        <v>3.420305574</v>
       </c>
       <c r="S4">
-        <v>0.06836471804055015</v>
+        <v>0.0717458884008622</v>
       </c>
       <c r="T4">
-        <v>0.06836471804055015</v>
+        <v>0.0717458884008622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.4868977833905078</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.004545675226666666</v>
+        <v>0.01466377956666667</v>
       </c>
       <c r="R5">
-        <v>0.04091107703999999</v>
+        <v>0.1319740161</v>
       </c>
       <c r="S5">
-        <v>0.0008729628381370897</v>
+        <v>0.002768347104101229</v>
       </c>
       <c r="T5">
-        <v>0.0008729628381370896</v>
+        <v>0.002768347104101229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.5131022166094922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.01176881426466667</v>
+        <v>0.02182323959044444</v>
       </c>
       <c r="R6">
-        <v>0.105919328382</v>
+        <v>0.196409156314</v>
       </c>
       <c r="S6">
-        <v>0.002260112522276562</v>
+        <v>0.004119967969216235</v>
       </c>
       <c r="T6">
-        <v>0.002260112522276561</v>
+        <v>0.004119967969216235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
         <v>2.280110429558889</v>
@@ -883,10 +883,10 @@
         <v>20.52099386603</v>
       </c>
       <c r="S7">
-        <v>0.4378781088840128</v>
+        <v>0.4304577190350671</v>
       </c>
       <c r="T7">
-        <v>0.4378781088840127</v>
+        <v>0.4304577190350671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>0.3751463866064444</v>
+        <v>0.4004870635111111</v>
       </c>
       <c r="R8">
-        <v>3.376317479458</v>
+        <v>3.6043835716</v>
       </c>
       <c r="S8">
-        <v>0.07204405023211095</v>
+        <v>0.07560719236541369</v>
       </c>
       <c r="T8">
-        <v>0.07204405023211095</v>
+        <v>0.07560719236541369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.5131022166094922</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N9">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q9">
-        <v>0.004790319681777777</v>
+        <v>0.01545297197111111</v>
       </c>
       <c r="R9">
-        <v>0.043112877136</v>
+        <v>0.13907674774</v>
       </c>
       <c r="S9">
-        <v>0.0009199449710918244</v>
+        <v>0.002917337239795086</v>
       </c>
       <c r="T9">
-        <v>0.0009199449710918243</v>
+        <v>0.002917337239795085</v>
       </c>
     </row>
   </sheetData>
